--- a/Fantasy25.xlsx
+++ b/Fantasy25.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e9f237e831f26750/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e9f237e831f26750/Fantasy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="689" documentId="8_{88CC661F-CCD9-4A51-8266-56BBE17AA9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20480BBB-875B-4DD4-B39B-965F241B4DEE}"/>
+  <xr:revisionPtr revIDLastSave="890" documentId="8_{88CC661F-CCD9-4A51-8266-56BBE17AA9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D3022BA-F284-43AC-B2B9-42FD6A394D39}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{A29E1835-958C-4353-954C-D756CD020572}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
   <si>
     <t>Team</t>
   </si>
@@ -104,9 +104,6 @@
   </si>
   <si>
     <t>PF</t>
-  </si>
-  <si>
-    <t>Week 12</t>
   </si>
   <si>
     <t>Week 13</t>
@@ -157,8 +154,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F7F2BD-4668-4F2E-A784-0621D0D0FED9}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -509,7 +507,7 @@
     <col min="6" max="6" width="9.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -543,54 +541,50 @@
       <c r="K1" t="s">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>1713.2</v>
+        <f>1713.2+167.56</f>
+        <v>1880.76</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <f>C2/D2</f>
-        <v>155.74545454545455</v>
+        <v>156.72999999999999</v>
       </c>
       <c r="F2">
         <v>10</v>
       </c>
       <c r="G2">
-        <v>153.13999999999999</v>
+        <f>19.39+15.8+24.14+22.36+20.58+10.95+19.12+13.51+6+8.83</f>
+        <v>160.68</v>
       </c>
       <c r="H2">
-        <v>145.41999999999999</v>
+        <f>19.4+22.8+8+23.44+22.39+10.71+8.36+13.62+5.04+8.68</f>
+        <v>142.44</v>
       </c>
       <c r="I2">
-        <f>109.95+18.1+8</f>
-        <v>136.05000000000001</v>
+        <f>19.34+16.68+28.14+12.77+24.25+10.13+18.16+20.33+6.59+8.77</f>
+        <v>165.16000000000003</v>
       </c>
       <c r="J2">
-        <f>19.56+16.38+27.72+22.25+10.43+17.93+19.88+6.5+13.07</f>
-        <v>153.72</v>
+        <f>18.35+24.4+21.96+13.54+22.78+9.78+19.33+20.22+6.94+8.31</f>
+        <v>165.60999999999999</v>
       </c>
       <c r="K2">
-        <f>18.11+21.22+24.51+13.88+21.34+9.87+19.15+19.06+6+8.29</f>
-        <v>161.43</v>
-      </c>
-      <c r="L2">
-        <f>22.81+19.99+27.65+15.19+21.36+12.01+16.63+19.69+8.64+6</f>
-        <v>169.96999999999997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+        <f>22.23+20.07+27.7+15.19+23.51+11.58+16.7+20.44+8.77+5</f>
+        <v>171.19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -598,86 +592,83 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>1431.14</v>
+        <f>1431.14+134.92</f>
+        <v>1566.0600000000002</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E13" si="0">C3/D3</f>
-        <v>130.10363636363638</v>
+        <v>130.50500000000002</v>
       </c>
       <c r="F3">
         <v>7.3</v>
       </c>
       <c r="G3">
-        <v>132.05000000000001</v>
+        <f>20.78+17.95+15.12+19.04+14.37+13.28+11.25+7+4.68+7.56</f>
+        <v>131.03</v>
       </c>
       <c r="H3">
-        <v>134</v>
+        <f>25.95+22.7+14.97+18.72+13.94+13.98+13.44+8.13+4.96+8.29</f>
+        <v>145.08000000000001</v>
       </c>
       <c r="I3">
-        <f>123.37+12</f>
-        <v>135.37</v>
+        <f>20.53+17.56+16.52+17.61+14.05+13.86+11.2+13.06+6.84+8.05</f>
+        <v>139.28</v>
       </c>
       <c r="J3">
-        <f>15+16.88+13.05+13.85+17.45+12.96+13.23+15.82+7+8.23</f>
-        <v>133.47</v>
+        <f>19.56+18.11+16.55+17.13+16.13+15.36+13.8+11+6+8.16</f>
+        <v>141.79999999999998</v>
       </c>
       <c r="K3">
-        <f>13.32+12.58+17.99+14.49+16.64+14.57+15.49+15.81+6+8.24</f>
-        <v>135.13</v>
-      </c>
-      <c r="L3">
-        <f>14.85+16.91+18.02+14.04+19.9+13.27+14.16+18.14+7.37+8</f>
-        <v>144.66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+        <f>20.98+17.64+18.81+20+14.95+13.85+10.74+13.41+8.33+7.96</f>
+        <v>146.67000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>1342.96</v>
+        <f>1342.96+155.92</f>
+        <v>1498.88</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>122.08727272727273</v>
+        <v>124.90666666666668</v>
       </c>
       <c r="F4">
         <v>5.7</v>
       </c>
       <c r="G4">
-        <f>113.7+15.56</f>
-        <v>129.26</v>
+        <f>21.34+20.37+16.71+13.71+13.31+11.45+10.59+11.4+6.79+9.14</f>
+        <v>134.81</v>
       </c>
       <c r="H4">
-        <v>131.26</v>
+        <f>17.39+22.93+8.64+11.77+14.1+9.46+10.04+11.66+6+7</f>
+        <v>118.98999999999998</v>
       </c>
       <c r="I4">
-        <f>111.99+7+15</f>
-        <v>133.99</v>
+        <f>21+18.46+14.36+11.79+13.95+10.88+10.22+12.5+6+8.81</f>
+        <v>127.97</v>
       </c>
       <c r="J4">
-        <f>24.34+16.43+15.25+13.46+12.09+11.31+10.58+15.46+6.36+8.93</f>
-        <v>134.20999999999998</v>
+        <f>17.24+20.8+12.98+11.74+15.67+9.61+9.65+12.11+6+8.42</f>
+        <v>124.22</v>
       </c>
       <c r="K4">
-        <f>20.1+17.99+14.69+15.34+11.84+10.23+10.17+15.74+6+8.59</f>
-        <v>130.69</v>
-      </c>
-      <c r="L4">
-        <f>19.51+18+15.6+13.82+13.14+10.09+9.41+13.87+6+8.93</f>
-        <v>128.37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+        <f>16.56+20.66+13.83+12.77+13.97+9.52+9.16+13.13+6+8.76</f>
+        <v>124.35999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -685,128 +676,125 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>1392.8</v>
+        <f>1392.8+101.86</f>
+        <v>1494.6599999999999</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>126.61818181818181</v>
+        <v>124.55499999999999</v>
       </c>
       <c r="F5">
         <v>5.8</v>
       </c>
       <c r="G5">
-        <v>118.15</v>
+        <f>17.41+24.5+10.75+20.6+10.93+8.67+12.21+11.75+6+8.49</f>
+        <v>131.31</v>
       </c>
       <c r="H5">
-        <f>113.39+21-7.5+3</f>
-        <v>129.88999999999999</v>
+        <f>17.08+23.91+11.5+20.52+13.58+8.75+9.88+10.99+6+8</f>
+        <v>130.20999999999998</v>
       </c>
       <c r="I5">
-        <f>90.03+20+8+3+4</f>
-        <v>125.03</v>
+        <f>16.91+22.82+11.49+20.89+12.56+8.23+10.74+10.01+6+9.3</f>
+        <v>128.95000000000002</v>
       </c>
       <c r="J5">
-        <f>17.94+22.75+11.66+19.63+12.95+8.57+11.06+12.37+6+9.26</f>
-        <v>132.19</v>
+        <f>17.49+27.9+14.11+19.56+11.7+8.45+11.06+11.1+6.68+8.76</f>
+        <v>136.81</v>
       </c>
       <c r="K5">
-        <f>16.9+28.95+15.3+18.82+11.9+8.63+11.13+11.13+7.4+8.79</f>
-        <v>138.94999999999999</v>
-      </c>
-      <c r="L5">
-        <f>16.78+25.03+16.65+20.69+11.81+8.88+9.14+12.05+7.87+9.17</f>
-        <v>138.07</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+        <f>20.06+25.07+15.39+20.55+12.23+11.29+9.6+10.35+8.11+9.17</f>
+        <v>141.81999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>1290.82</v>
+        <f>1290.82+157.76</f>
+        <v>1448.58</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>117.34727272727272</v>
+        <v>120.71499999999999</v>
       </c>
       <c r="F6">
         <v>5</v>
       </c>
       <c r="G6">
-        <v>126.7</v>
+        <f>22.26+16.77+15.19+15.91+13.11+11.05+11.57+13.23+9.04+8.73</f>
+        <v>136.85999999999999</v>
       </c>
       <c r="H6">
-        <v>125.95</v>
-      </c>
-      <c r="I6">
-        <v>120</v>
+        <f>19.76+16.87+13.47+15.08+12.92+9.75+11.84+8.89+5.14+8.22</f>
+        <v>121.94000000000001</v>
+      </c>
+      <c r="I6" s="1">
+        <f>21.37+14.26+13.12+15.32+13.465+9.88+12.96+13.55+8.41+8.66</f>
+        <v>130.995</v>
       </c>
       <c r="J6">
-        <f>20.29+13.39+13.42+14.58+13.47+10.15+12.73+13.19+6+8.73</f>
-        <v>125.95000000000002</v>
+        <f>24.57+15.39+15.35+17.8+13.7+11.47+13.35+13.54+6+8.72</f>
+        <v>139.88999999999999</v>
       </c>
       <c r="K6">
-        <f>23.83+14.07+15.75+17.15+13.77+11.9+12.79+12.51+6+8.72</f>
-        <v>136.49</v>
-      </c>
-      <c r="L6">
-        <f>21.06+13.57+12.86+15.56+14.04+10.83+10.36+12.06+6+8.45</f>
-        <v>124.79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+        <f>21.83+14.85+13.11+16.21+13.91+10.44+11.08+12.11+6+8.43</f>
+        <v>127.97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>1501.62</v>
+        <f>1501.62+135.76</f>
+        <v>1637.3799999999999</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>136.51090909090908</v>
+        <v>136.44833333333332</v>
       </c>
       <c r="F7">
         <v>7.7</v>
       </c>
       <c r="G7">
-        <v>145</v>
+        <f>22.36+10.52+20.3+19.97+11.54+17.37+14.15+13.46+6+9.06</f>
+        <v>144.73000000000002</v>
       </c>
       <c r="H7">
-        <v>150.44999999999999</v>
+        <f>17+12.01+20.83+19.6+10.41+15.85+13.3+13.74+6+8.5</f>
+        <v>137.23999999999998</v>
       </c>
       <c r="I7">
-        <f>124.59+17</f>
-        <v>141.59</v>
+        <f>21.04+9.41+19.58+15.4+18.43+15.29+11.52+12.78+5.4+8.88</f>
+        <v>137.72999999999999</v>
       </c>
       <c r="J7">
-        <f>22.68+9.34+19.9+15.05+19.23+16.26+11.85+11.91+5.63+9.2</f>
-        <v>141.04999999999998</v>
+        <f>19.34+10.78+23.72+17.88+13.65+16.86+11.77+11.19+6+8.4</f>
+        <v>139.59</v>
       </c>
       <c r="K7">
-        <f>20.8+10.68+24.06+18.3+13.73+18.82+11.12+9.2+7.54+8.65</f>
-        <v>142.90000000000003</v>
-      </c>
-      <c r="L7">
-        <f>21.36+10.58+22.53+22.09+13.57+20.3+12.55+10+5.78+8.53</f>
-        <v>147.29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+        <f>19.57+10.66+21.75+13.63+21.09+18.56+13.59+12.43+5.7+8.2</f>
+        <v>145.17999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -814,42 +802,41 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>1453.42</v>
+        <f>1453.42+100.48</f>
+        <v>1553.9</v>
       </c>
       <c r="D8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>132.12909090909091</v>
+        <v>129.49166666666667</v>
       </c>
       <c r="F8">
         <v>7</v>
       </c>
       <c r="G8">
-        <v>120.82</v>
+        <f>21.64+17.74+12.66+18.12+11.83+8.07+11.56+10.57+6.01+8.07</f>
+        <v>126.27000000000001</v>
       </c>
       <c r="H8">
-        <v>125.79</v>
+        <f>17.37+15.45+16.07+15.56+12.88+7.9+17.18+12.35+6+7.96</f>
+        <v>128.72</v>
       </c>
       <c r="I8">
-        <f>110.54+13+7</f>
-        <v>130.54000000000002</v>
+        <f>18.87+16.1+16.48+16.04+11.66+8.08+12.28+18.73+6+8.28</f>
+        <v>132.52000000000001</v>
       </c>
       <c r="J8">
-        <f>19.89+15.93+18.3+16.32+12.63+8.26+19.08+12.16+6+8</f>
-        <v>136.57</v>
+        <f>21.04+18.33+15.79+17.57+11.65+8.15+11.33+18.19+5.16+8.4</f>
+        <v>135.60999999999999</v>
       </c>
       <c r="K8">
-        <f>21.76+18.13+16.71+17.72+12.14+8.09+18.16+10.88+6+8</f>
-        <v>137.58999999999997</v>
-      </c>
-      <c r="L8">
-        <f>18.21+16.24+17.45+16.05+12.53+8.31+17.95+12.56+7.14+8</f>
-        <v>134.44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+        <f>17.3+16.25+16.51+15.54+11.77+8.38+12.59+17.23+7.73+8.02</f>
+        <v>131.32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -857,42 +844,40 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <v>1338.24</v>
+        <f>1338.24+111.78</f>
+        <v>1450.02</v>
       </c>
       <c r="D9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>121.65818181818182</v>
+        <v>120.83499999999999</v>
       </c>
       <c r="F9">
         <v>4.4000000000000004</v>
       </c>
       <c r="G9">
-        <v>113.42</v>
+        <v>123.73</v>
       </c>
       <c r="H9">
-        <v>119.62</v>
+        <f>13.92+12.67+10.45+13.86+9.99+8.49+9.79+6.37+8.38</f>
+        <v>93.919999999999987</v>
       </c>
       <c r="I9">
-        <f>93.3+6</f>
-        <v>99.3</v>
+        <f>13.51+14.02+14.24+15.68+14.02+10.23+9.22+11.02+5.07+8.77</f>
+        <v>115.77999999999999</v>
       </c>
       <c r="J9">
-        <f>13.91+11.13+15.52+10.05+15.71+10.78+9.86+14.03+5.29+8.72</f>
-        <v>115</v>
+        <f>17.19+12.82+11.79+13.59+16.29+11.28+10.55+10.27+6+8.52</f>
+        <v>118.3</v>
       </c>
       <c r="K9">
-        <f>18.99+10.52+12.89+11.41+13.55+11.76+10.67+16.24+6+8.42</f>
-        <v>120.45</v>
-      </c>
-      <c r="L9">
-        <f>21.22+10.68+13.76+10.58+13.43+10.74+9.01+15.21+7.08+8.22</f>
-        <v>119.92999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+        <f>20.02+12.33+12.11+13.53+14.9+10.01+9.77+10.56+6.72+8.16</f>
+        <v>118.11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -900,128 +885,125 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>1496.84</v>
+        <f>1496.84+116.52</f>
+        <v>1613.36</v>
       </c>
       <c r="D10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>136.07636363636362</v>
+        <v>134.44666666666666</v>
       </c>
       <c r="F10">
         <v>8.1</v>
       </c>
       <c r="G10">
-        <f>105.8+24</f>
-        <v>129.80000000000001</v>
+        <f>17.95+20.17+12.34+21.53+15.1+14.11+12.91+13.1+6+8.84</f>
+        <v>142.04999999999998</v>
       </c>
       <c r="H10">
-        <v>144.37</v>
+        <f>16.92+16.3+14.16+21.19+17.87+8+11.91+13.1+6.86+8.44</f>
+        <v>134.75</v>
       </c>
       <c r="I10">
-        <f>126.03+8</f>
-        <v>134.03</v>
+        <f>18.46+19.33+11.96+20.54+17.35+15.39+12.53+14.32+6+8.3</f>
+        <v>144.18</v>
       </c>
       <c r="J10">
-        <f>18.49+19.12+12.77+21.12+19.08+15.21+12.83+14.06+6+8.33</f>
-        <v>147.01</v>
+        <f>19.1+15.99+11.77+21.66+16.39+15.67+12.5+14.69+6+8.81</f>
+        <v>142.57999999999998</v>
       </c>
       <c r="K10">
-        <f>20.01+15.02+13.07+22.05+18.07+15.75+11.7+14.1+6+8.88</f>
-        <v>144.65</v>
-      </c>
-      <c r="L10">
-        <f>19.24+14.41+13.67+21.34+17.06+15.89+12.51+11.52+6.51+8.35</f>
-        <v>140.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+        <f>19.25+14.92+12.95+21.01+16.38+15.75+12.64+12.3+6.75+8.26</f>
+        <v>140.20999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>1413.86</v>
+        <f>1413.86+139.64</f>
+        <v>1553.5</v>
       </c>
       <c r="D11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>128.53272727272727</v>
+        <v>129.45833333333334</v>
       </c>
       <c r="F11">
         <v>7.7</v>
       </c>
       <c r="G11">
-        <v>138.44999999999999</v>
+        <f>18.84+15.67+20.71+16.44+11.85+14.56+14.62+15.53+5.7+8.47</f>
+        <v>142.38999999999999</v>
       </c>
       <c r="H11">
-        <v>138.63999999999999</v>
+        <f>15.35+13.75+18.82+16.7+11.78+14.04+16.61+12.45+5.98+8.27</f>
+        <v>133.75</v>
       </c>
       <c r="I11">
-        <v>140.26</v>
+        <f>24.14+14.49+20.8+15.89+10.8+14.93+16.17+12.06+5.48+8.54</f>
+        <v>143.29999999999998</v>
       </c>
       <c r="J11">
-        <f>25.39+14.85+22.05+16.01+12.55+10.82+14.85+13.44+5.25+8.68</f>
-        <v>143.89000000000001</v>
+        <f>20.43+13.92+20.68+15.3+10.41+13.95+17.42+12.23+6+7.76</f>
+        <v>138.1</v>
       </c>
       <c r="K11">
-        <f>20.85+15.68+21.87+15.74+12.75+10.27+14.19+15.81+6+7.84</f>
-        <v>141</v>
-      </c>
-      <c r="L11">
-        <f>20.94+15.53+19.72+15.12+12.07+10.18+16.53+17.16+5.46+8.21</f>
-        <v>140.92000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+        <f>19.97+20.23+18.04+14.95+11.86+16.12+17.44+11.62+6+8.09</f>
+        <v>144.32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>1314.5</v>
+        <f>1314.5+114.22</f>
+        <v>1428.72</v>
       </c>
       <c r="D12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>119.5</v>
+        <v>119.06</v>
       </c>
       <c r="F12">
         <v>5.3</v>
       </c>
       <c r="G12">
-        <v>125.92</v>
+        <f>19.37+12.77+14.03+16.79+10.24+7.04+13.89+12.5+5.25+9.14</f>
+        <v>121.02000000000001</v>
       </c>
       <c r="H12">
-        <v>121.7</v>
+        <f>18.89+16.89+14.2+16.7+10.16+8.44+11.09+10.52+5.32+9.17</f>
+        <v>121.38000000000001</v>
       </c>
       <c r="I12">
-        <f>102.47+8+10</f>
-        <v>120.47</v>
+        <f>19.49+15.72+13.37+16.99+10.69+8.14+14.54+15.18+8.01+9.33</f>
+        <v>131.46</v>
       </c>
       <c r="J12">
-        <f>17.7+14.43+13.7+15.88+13.03+8.92+14.45+15.55+7.92+9.38</f>
-        <v>130.96</v>
+        <f>16.96+13.3+12.25+15.85+10.12+7.64+15.31+16.84+9.72+9.21</f>
+        <v>127.20000000000002</v>
       </c>
       <c r="K12">
-        <f>16.11+12.11+12.66+15.18+12.34+8.41+15.53+16.25+9.51+9.23</f>
-        <v>127.33</v>
-      </c>
-      <c r="L12">
-        <f>19.56+12+15.31+16.84+11.62+7.91+13.58+13.76+8.05+9.56</f>
-        <v>128.19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+        <f>18.95+13+14.18+16.75+10.08+7.64+13.96+13.9+7.85+9.54</f>
+        <v>125.85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1029,39 +1011,38 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>1237.44</v>
+        <f>1237.44+84.24</f>
+        <v>1321.68</v>
       </c>
       <c r="D13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>112.49454545454546</v>
+        <v>110.14</v>
       </c>
       <c r="F13">
         <v>5.6</v>
       </c>
       <c r="G13">
-        <v>131.38</v>
+        <f>17.22+14.95+11.82+13.69+15.88+8.91+13.58+14.01+5.86+8.36</f>
+        <v>124.28</v>
       </c>
       <c r="H13">
-        <v>125.07</v>
+        <f>18.42+12.61+11.62+13.56+15.94+9.1+13.72+9.75+6+8.4</f>
+        <v>119.12</v>
       </c>
       <c r="I13">
-        <f>108.84+10</f>
-        <v>118.84</v>
+        <f>17.71+13.97+14.2+14.02+15.48+8.63+13.54+13.05+6+8.37</f>
+        <v>124.96999999999998</v>
       </c>
       <c r="J13">
-        <f>17.45+14.5+13.56+15+16.47+8+15.55+10.8+5.99+8.75</f>
-        <v>126.06999999999998</v>
+        <f>21.63+10.85+13.58+14.6+14.69+8.29+13.26+14.14+6+8.3</f>
+        <v>125.33999999999999</v>
       </c>
       <c r="K13">
-        <f>21.57+11.06+13.27+14.7+16.14+8+15.07+10.47+5.48+8.55</f>
-        <v>124.31</v>
-      </c>
-      <c r="L13">
-        <f>19.21+12.35+12.27+15.06+16.85+8+14.84+11.68+6+8.52</f>
-        <v>124.78000000000002</v>
+        <f>18.79+12.12+12.83+16.17+16.04+8.07+12.88+14.48+6+8.27</f>
+        <v>125.64999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -1071,10 +1052,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3094DA19-316A-4B7A-8D76-D502CD1189E8}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="A1:C19"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1092,199 +1073,133 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
         <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
         <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>14</v>
-      </c>
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>14</v>
-      </c>
-      <c r="B19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1297,8 +1212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3918282-1986-474B-A23B-31B29600C102}">
   <dimension ref="A1:A133"/>
   <sheetViews>
-    <sheetView topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="H130" sqref="H130"/>
+    <sheetView topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="C131" sqref="C131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Fantasy25.xlsx
+++ b/Fantasy25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e9f237e831f26750/Fantasy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="890" documentId="8_{88CC661F-CCD9-4A51-8266-56BBE17AA9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D3022BA-F284-43AC-B2B9-42FD6A394D39}"/>
+  <xr:revisionPtr revIDLastSave="972" documentId="8_{88CC661F-CCD9-4A51-8266-56BBE17AA9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6477D868-E26C-4368-AC92-1463D087B997}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{A29E1835-958C-4353-954C-D756CD020572}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>Team</t>
   </si>
@@ -104,9 +104,6 @@
   </si>
   <si>
     <t>PF</t>
-  </si>
-  <si>
-    <t>Week 13</t>
   </si>
   <si>
     <t>Week 14</t>
@@ -495,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F7F2BD-4668-4F2E-A784-0621D0D0FED9}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -507,7 +504,7 @@
     <col min="6" max="6" width="9.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -538,11 +535,8 @@
       <c r="J1" t="s">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -550,83 +544,74 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <f>1713.2+167.56</f>
-        <v>1880.76</v>
+        <f>1713.2+167.56+95</f>
+        <v>1975.76</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2">
         <f>C2/D2</f>
-        <v>156.72999999999999</v>
+        <v>151.98153846153846</v>
       </c>
       <c r="F2">
         <v>10</v>
       </c>
       <c r="G2">
-        <f>19.39+15.8+24.14+22.36+20.58+10.95+19.12+13.51+6+8.83</f>
-        <v>160.68</v>
+        <f>20.28+21.32+8+9.47+20.89+10.98+8.58+13.05+5.81+8.64</f>
+        <v>127.02000000000001</v>
       </c>
       <c r="H2">
-        <f>19.4+22.8+8+23.44+22.39+10.71+8.36+13.62+5.04+8.68</f>
-        <v>142.44</v>
+        <f>19.05+13.28+26.82+14.65+21.61+10+16.22+20.25+5.92+8.77</f>
+        <v>156.57</v>
       </c>
       <c r="I2">
-        <f>19.34+16.68+28.14+12.77+24.25+10.13+18.16+20.33+6.59+8.77</f>
-        <v>165.16000000000003</v>
+        <f>19.15+20.55+23.43+15.09+20.86+10.38+14.18+19.35+6.69+8.41</f>
+        <v>158.08999999999997</v>
       </c>
       <c r="J2">
-        <f>18.35+24.4+21.96+13.54+22.78+9.78+19.33+20.22+6.94+8.31</f>
-        <v>165.60999999999999</v>
-      </c>
-      <c r="K2">
-        <f>22.23+20.07+27.7+15.19+23.51+11.58+16.7+20.44+8.77+5</f>
-        <v>171.19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+        <f>22.29+18.78+26.74+15.19+21.18+11.93+12.08+18.82+8.69+5</f>
+        <v>160.70000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <f>1431.14+134.92</f>
-        <v>1566.0600000000002</v>
+        <v>1683.48</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E13" si="0">C3/D3</f>
-        <v>130.50500000000002</v>
+        <v>129.49846153846153</v>
       </c>
       <c r="F3">
         <v>7.3</v>
       </c>
       <c r="G3">
-        <f>20.78+17.95+15.12+19.04+14.37+13.28+11.25+7+4.68+7.56</f>
-        <v>131.03</v>
+        <f>23.98+21.31+14.1+18.92+14.02+12.9+13.27+10.52+6+7.93</f>
+        <v>142.95000000000002</v>
       </c>
       <c r="H3">
-        <f>25.95+22.7+14.97+18.72+13.94+13.98+13.44+8.13+4.96+8.29</f>
-        <v>145.08000000000001</v>
+        <f>18.94+16.57+14.9+17.18+13.92+12.64+11.27+13.21+6+7.83</f>
+        <v>132.46</v>
       </c>
       <c r="I3">
-        <f>20.53+17.56+16.52+17.61+14.05+13.86+11.2+13.06+6.84+8.05</f>
-        <v>139.28</v>
+        <f>18.19+17.04+14.63+17.9+15.75+14.03+11.26+14.08+6+7.85</f>
+        <v>136.72999999999999</v>
       </c>
       <c r="J3">
-        <f>19.56+18.11+16.55+17.13+16.13+15.36+13.8+11+6+8.16</f>
-        <v>141.79999999999998</v>
-      </c>
-      <c r="K3">
-        <f>20.98+17.64+18.81+20+14.95+13.85+10.74+13.41+8.33+7.96</f>
-        <v>146.67000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+        <f>19.55+17.59+16.48+20.38+15.05+12.79+11.23+13.83+7.58+7.77</f>
+        <v>142.25000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -634,41 +619,36 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <f>1342.96+155.92</f>
-        <v>1498.88</v>
+        <v>1605.22</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>124.90666666666668</v>
+        <v>123.47846153846154</v>
       </c>
       <c r="F4">
         <v>5.7</v>
       </c>
       <c r="G4">
-        <f>21.34+20.37+16.71+13.71+13.31+11.45+10.59+11.4+6.79+9.14</f>
-        <v>134.81</v>
+        <f>16.79+23.69+8.32+12.79+11.8+9.05+9.57+11.03+6+8</f>
+        <v>117.03999999999999</v>
       </c>
       <c r="H4">
-        <f>17.39+22.93+8.64+11.77+14.1+9.46+10.04+11.66+6+7</f>
-        <v>118.98999999999998</v>
+        <f>19.95+18.85+12.18+12.49+12.1+10.26+9.88+11.49+6+8.63</f>
+        <v>121.82999999999998</v>
       </c>
       <c r="I4">
-        <f>21+18.46+14.36+11.79+13.95+10.88+10.22+12.5+6+8.81</f>
-        <v>127.97</v>
+        <f>16.5+20.76+11.33+14.06+11.35+9.28+9.05+11.42+6+8.36</f>
+        <v>118.11</v>
       </c>
       <c r="J4">
-        <f>17.24+20.8+12.98+11.74+15.67+9.61+9.65+12.11+6+8.42</f>
-        <v>124.22</v>
-      </c>
-      <c r="K4">
-        <f>16.56+20.66+13.83+12.77+13.97+9.52+9.16+13.13+6+8.76</f>
-        <v>124.35999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+        <f>16.64+19.99+12.4+12.68+12.85+9.53+8.89+11.98+6+8.74</f>
+        <v>119.69999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -676,208 +656,185 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <f>1392.8+101.86</f>
-        <v>1494.6599999999999</v>
+        <v>1602.22</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>124.55499999999999</v>
+        <v>123.2476923076923</v>
       </c>
       <c r="F5">
         <v>5.8</v>
       </c>
       <c r="G5">
-        <f>17.41+24.5+10.75+20.6+10.93+8.67+12.21+11.75+6+8.49</f>
-        <v>131.31</v>
+        <f>16.89+23.47+8.52+20.88+12.09+8.36+8.65+11.8+6.07+8.38</f>
+        <v>125.10999999999999</v>
       </c>
       <c r="H5">
-        <f>17.08+23.91+11.5+20.52+13.58+8.75+9.88+10.99+6+8</f>
-        <v>130.20999999999998</v>
+        <f>15.93+22+10.13+21.08+11.33+9.41+9.9+11.16+6+9.13</f>
+        <v>126.07</v>
       </c>
       <c r="I5">
-        <f>16.91+22.82+11.49+20.89+12.56+8.23+10.74+10.01+6+9.3</f>
-        <v>128.95000000000002</v>
+        <f>17.27+26.49+12.32+19.41+10.42+8.01+10.04+10.33+6+8.61</f>
+        <v>128.9</v>
       </c>
       <c r="J5">
-        <f>17.49+27.9+14.11+19.56+11.7+8.45+11.06+11.1+6.68+8.76</f>
-        <v>136.81</v>
-      </c>
-      <c r="K5">
-        <f>20.06+25.07+15.39+20.55+12.23+11.29+9.6+10.35+8.11+9.17</f>
-        <v>141.81999999999996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+        <f>18.26+24.15+13.42+20.78+10.66+8.01+11.34+11.01+6.51+9</f>
+        <v>133.14000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <f>1290.82+157.76</f>
-        <v>1448.58</v>
+        <f>1290.82+157.76+134</f>
+        <v>1582.58</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>120.71499999999999</v>
+        <v>121.73692307692308</v>
       </c>
       <c r="F6">
         <v>5</v>
       </c>
       <c r="G6">
-        <f>22.26+16.77+15.19+15.91+13.11+11.05+11.57+13.23+9.04+8.73</f>
-        <v>136.85999999999999</v>
-      </c>
-      <c r="H6">
-        <f>19.76+16.87+13.47+15.08+12.92+9.75+11.84+8.89+5.14+8.22</f>
-        <v>121.94000000000001</v>
-      </c>
-      <c r="I6" s="1">
-        <f>21.37+14.26+13.12+15.32+13.465+9.88+12.96+13.55+8.41+8.66</f>
-        <v>130.995</v>
+        <f>19.41+16.6+12.12+16.33+12.22+9.39+11.03+8.64+6+7.97</f>
+        <v>119.71000000000001</v>
+      </c>
+      <c r="H6" s="1">
+        <f>21.79+14.03+14.53+16.35+12.8+9.38+12.75+12.94+6+8.51</f>
+        <v>129.07999999999998</v>
+      </c>
+      <c r="I6">
+        <f>23.9+15.45+16.65+18.73+13.22+10.77+12.94+12.98+6+8.39</f>
+        <v>139.02999999999997</v>
       </c>
       <c r="J6">
-        <f>24.57+15.39+15.35+17.8+13.7+11.47+13.35+13.54+6+8.72</f>
-        <v>139.88999999999999</v>
-      </c>
-      <c r="K6">
-        <f>21.83+14.85+13.11+16.21+13.91+10.44+11.08+12.11+6+8.43</f>
-        <v>127.97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+        <f>20.48+14.83+13.99+16.44+13.24+9.42+10.71+11.57+6+8.07</f>
+        <v>124.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <f>1501.62+135.76</f>
-        <v>1637.3799999999999</v>
+        <v>1769.08</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>136.44833333333332</v>
+        <v>136.08307692307693</v>
       </c>
       <c r="F7">
         <v>7.7</v>
       </c>
       <c r="G7">
-        <f>22.36+10.52+20.3+19.97+11.54+17.37+14.15+13.46+6+9.06</f>
-        <v>144.73000000000002</v>
+        <f>17+11.31+20.87+12.3+19.48+15.5+13.34+11.71+6+8.45</f>
+        <v>135.96</v>
       </c>
       <c r="H7">
-        <f>17+12.01+20.83+19.6+10.41+15.85+13.3+13.74+6+8.5</f>
-        <v>137.23999999999998</v>
+        <f>20.87+19.76+12.61+14.09+17.63+14.44+10.68+10.83+8.37+8.72</f>
+        <v>137.99999999999997</v>
       </c>
       <c r="I7">
-        <f>21.04+9.41+19.58+15.4+18.43+15.29+11.52+12.78+5.4+8.88</f>
-        <v>137.72999999999999</v>
+        <f>19.67+9.59+23.79+18.38+11.31+15.79+12.18+12+5.78+8.3</f>
+        <v>136.79000000000002</v>
       </c>
       <c r="J7">
-        <f>19.34+10.78+23.72+17.88+13.65+16.86+11.77+11.19+6+8.4</f>
-        <v>139.59</v>
-      </c>
-      <c r="K7">
-        <f>19.57+10.66+21.75+13.63+21.09+18.56+13.59+12.43+5.7+8.2</f>
-        <v>145.17999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+        <f>20.52+9.15+21.78+13.22+21.05+17.12+13.7+13.11+6+8.19</f>
+        <v>143.84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <f>1453.42+100.48</f>
-        <v>1553.9</v>
+        <v>1705.94</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>129.49166666666667</v>
+        <v>131.22615384615386</v>
       </c>
       <c r="F8">
         <v>7</v>
       </c>
       <c r="G8">
-        <f>21.64+17.74+12.66+18.12+11.83+8.07+11.56+10.57+6.01+8.07</f>
-        <v>126.27000000000001</v>
+        <f>17.88+14.49+16.36+17.11+16+9.39+10.12+16.15+6.81+8</f>
+        <v>132.31</v>
       </c>
       <c r="H8">
-        <f>17.37+15.45+16.07+15.56+12.88+7.9+17.18+12.35+6+7.96</f>
-        <v>128.72</v>
+        <f>19.38+15.94+16.6+18.01+12.47+9.87+9.49+18.2+6+8.26</f>
+        <v>134.22</v>
       </c>
       <c r="I8">
-        <f>18.87+16.1+16.48+16.04+11.66+8.08+12.28+18.73+6+8.28</f>
-        <v>132.52000000000001</v>
+        <f>21.03+17.04+16.47+18.87+11.95+8.86+9.25+17.6+6+8.45</f>
+        <v>135.51999999999998</v>
       </c>
       <c r="J8">
-        <f>21.04+18.33+15.79+17.57+11.65+8.15+11.33+18.19+5.16+8.4</f>
-        <v>135.60999999999999</v>
-      </c>
-      <c r="K8">
-        <f>17.3+16.25+16.51+15.54+11.77+8.38+12.59+17.23+7.73+8.02</f>
-        <v>131.32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+        <f>17.93+15.05+16.45+17.23+11.62+10.19+12.23+17.27+6.33+7.97</f>
+        <v>132.27000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <f>1338.24+111.78</f>
-        <v>1450.02</v>
+        <v>1573.66</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>120.83499999999999</v>
+        <v>121.05076923076923</v>
       </c>
       <c r="F9">
         <v>4.4000000000000004</v>
       </c>
       <c r="G9">
-        <v>123.73</v>
+        <f>15.36+11.37+12.2+10.35+13.49+10.09+8.61+8.98+6.15+8.3</f>
+        <v>104.9</v>
       </c>
       <c r="H9">
-        <f>13.92+12.67+10.45+13.86+9.99+8.49+9.79+6.37+8.38</f>
-        <v>93.919999999999987</v>
+        <f>14.04+12.57+14.01+15.15+13.47+10.61+9.62+10.57+6+8.64</f>
+        <v>114.67999999999999</v>
       </c>
       <c r="I9">
-        <f>13.51+14.02+14.24+15.68+14.02+10.23+9.22+11.02+5.07+8.77</f>
-        <v>115.77999999999999</v>
+        <f>17.36+11.79+12.47+10.4+15.47+12.43+11.3+6+8.54+11.13</f>
+        <v>116.88999999999999</v>
       </c>
       <c r="J9">
-        <f>17.19+12.82+11.79+13.59+16.29+11.28+10.55+10.27+6+8.52</f>
-        <v>118.3</v>
-      </c>
-      <c r="K9">
-        <f>20.02+12.33+12.11+13.53+14.9+10.01+9.77+10.56+6.72+8.16</f>
-        <v>118.11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+        <f>19.86+11.13+12.14+9.61+13.58+10.17+13.25+9.62+6.95+8.13</f>
+        <v>114.44000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -885,83 +842,73 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <f>1496.84+116.52</f>
-        <v>1613.36</v>
+        <v>1725.7</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>134.44666666666666</v>
+        <v>132.74615384615385</v>
       </c>
       <c r="F10">
         <v>8.1</v>
       </c>
       <c r="G10">
-        <f>17.95+20.17+12.34+21.53+15.1+14.11+12.91+13.1+6+8.84</f>
-        <v>142.04999999999998</v>
-      </c>
-      <c r="H10">
         <f>16.92+16.3+14.16+21.19+17.87+8+11.91+13.1+6.86+8.44</f>
         <v>134.75</v>
       </c>
-      <c r="I10">
+      <c r="H10">
         <f>18.46+19.33+11.96+20.54+17.35+15.39+12.53+14.32+6+8.3</f>
         <v>144.18</v>
       </c>
-      <c r="J10">
+      <c r="I10">
         <f>19.1+15.99+11.77+21.66+16.39+15.67+12.5+14.69+6+8.81</f>
         <v>142.57999999999998</v>
       </c>
-      <c r="K10">
+      <c r="J10">
         <f>19.25+14.92+12.95+21.01+16.38+15.75+12.64+12.3+6.75+8.26</f>
         <v>140.20999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <f>1413.86+139.64</f>
-        <v>1553.5</v>
+        <v>1712.06</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>129.45833333333334</v>
+        <v>131.69692307692307</v>
       </c>
       <c r="F11">
         <v>7.7</v>
       </c>
       <c r="G11">
-        <f>18.84+15.67+20.71+16.44+11.85+14.56+14.62+15.53+5.7+8.47</f>
-        <v>142.38999999999999</v>
+        <f>17+14.33+19.97+16.92+10.93+13.2+13.52+15.85+6+8.32</f>
+        <v>136.04</v>
       </c>
       <c r="H11">
-        <f>15.35+13.75+18.82+16.7+11.78+14.04+16.61+12.45+5.98+8.27</f>
-        <v>133.75</v>
+        <f>23.69+14.29+22.59+15.85+10.11+13.46+12.72+16.79+5.98+8.64</f>
+        <v>144.12</v>
       </c>
       <c r="I11">
-        <f>24.14+14.49+20.8+15.89+10.8+14.93+16.17+12.06+5.48+8.54</f>
-        <v>143.29999999999998</v>
+        <f>19.42+15.25+22.19+15.42+11.57+13+12.55+15.71+6.91+7.92</f>
+        <v>139.93999999999997</v>
       </c>
       <c r="J11">
-        <f>20.43+13.92+20.68+15.3+10.41+13.95+17.42+12.23+6+7.76</f>
-        <v>138.1</v>
-      </c>
-      <c r="K11">
-        <f>19.97+20.23+18.04+14.95+11.86+16.12+17.44+11.62+6+8.09</f>
-        <v>144.32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+        <f>20.48+15.35+20.39+15.29+10.99+15.16+12.49+22.21+6.49+8.14</f>
+        <v>146.99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -969,41 +916,36 @@
         <v>3</v>
       </c>
       <c r="C12">
-        <f>1314.5+114.22</f>
-        <v>1428.72</v>
+        <v>1545.74</v>
       </c>
       <c r="D12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>119.06</v>
+        <v>118.90307692307692</v>
       </c>
       <c r="F12">
         <v>5.3</v>
       </c>
       <c r="G12">
-        <f>19.37+12.77+14.03+16.79+10.24+7.04+13.89+12.5+5.25+9.14</f>
-        <v>121.02000000000001</v>
+        <f>18.48+12.76+13.66+16.71+10.87+8.71+10.38+10.6+6+9.24</f>
+        <v>117.40999999999998</v>
       </c>
       <c r="H12">
-        <f>18.89+16.89+14.2+16.7+10.16+8.44+11.09+10.52+5.32+9.17</f>
-        <v>121.38000000000001</v>
+        <f>19.25+14.33+16.86+11.15+9.46+13.09+13.86+7.67+9.2</f>
+        <v>114.87</v>
       </c>
       <c r="I12">
-        <f>19.49+15.72+13.37+16.99+10.69+8.14+14.54+15.18+8.01+9.33</f>
-        <v>131.46</v>
+        <f>15.79+12.29+11.66+15.43+10.62+8.97+14.11+15.03+9.79+9.16</f>
+        <v>122.85</v>
       </c>
       <c r="J12">
-        <f>16.96+13.3+12.25+15.85+10.12+7.64+15.31+16.84+9.72+9.21</f>
-        <v>127.20000000000002</v>
-      </c>
-      <c r="K12">
         <f>18.95+13+14.18+16.75+10.08+7.64+13.96+13.9+7.85+9.54</f>
         <v>125.85</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1011,36 +953,31 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <f>1237.44+84.24</f>
-        <v>1321.68</v>
+        <v>1422.92</v>
       </c>
       <c r="D13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>110.14</v>
+        <v>109.45538461538462</v>
       </c>
       <c r="F13">
         <v>5.6</v>
       </c>
       <c r="G13">
-        <f>17.22+14.95+11.82+13.69+15.88+8.91+13.58+14.01+5.86+8.36</f>
-        <v>124.28</v>
-      </c>
-      <c r="H13">
         <f>18.42+12.61+11.62+13.56+15.94+9.1+13.72+9.75+6+8.4</f>
         <v>119.12</v>
       </c>
-      <c r="I13">
+      <c r="H13">
         <f>17.71+13.97+14.2+14.02+15.48+8.63+13.54+13.05+6+8.37</f>
         <v>124.96999999999998</v>
       </c>
-      <c r="J13">
+      <c r="I13">
         <f>21.63+10.85+13.58+14.6+14.69+8.29+13.26+14.14+6+8.3</f>
         <v>125.33999999999999</v>
       </c>
-      <c r="K13">
+      <c r="J13">
         <f>18.79+12.12+12.83+16.17+16.04+8.07+12.88+14.48+6+8.27</f>
         <v>125.64999999999998</v>
       </c>
@@ -1052,10 +989,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3094DA19-316A-4B7A-8D76-D502CD1189E8}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1073,133 +1010,67 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
         <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
         <v>8</v>
       </c>
     </row>
